--- a/APM files/133756694/133756694 IMPORT Stop Sell Removal.xlsx
+++ b/APM files/133756694/133756694 IMPORT Stop Sell Removal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/133756694/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2AAC447-9408-F04D-9ABD-42A93B33F65D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D7977F-FCB2-5444-BCDD-2C34EE74534F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="18000" windowHeight="21260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="6">
   <si>
     <t>Hotel ID</t>
   </si>
@@ -44,7 +44,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,14 +56,27 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -90,16 +103,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -400,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -423,8 +440,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>89848506</v>
+      <c r="A2" s="2">
+        <v>69318056</v>
       </c>
       <c r="B2">
         <v>133756694</v>
@@ -433,6 +450,188 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>59815951</v>
+      </c>
+      <c r="B3">
+        <v>133756694</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>89840564</v>
+      </c>
+      <c r="B4">
+        <v>133756694</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>69382452</v>
+      </c>
+      <c r="B5">
+        <v>133756694</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>69318067</v>
+      </c>
+      <c r="B6">
+        <v>133756694</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>69650187</v>
+      </c>
+      <c r="B7">
+        <v>133756694</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>69318065</v>
+      </c>
+      <c r="B8">
+        <v>133756694</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>89940197</v>
+      </c>
+      <c r="B9">
+        <v>133756694</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>89840341</v>
+      </c>
+      <c r="B10">
+        <v>133756694</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>89840565</v>
+      </c>
+      <c r="B11">
+        <v>133756694</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>89840566</v>
+      </c>
+      <c r="B12">
+        <v>133756694</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>89848253</v>
+      </c>
+      <c r="B13">
+        <v>133756694</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>89994708</v>
+      </c>
+      <c r="B14">
+        <v>133756694</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>69318057</v>
+      </c>
+      <c r="B15">
+        <v>133756694</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
         <v>5</v>
       </c>
     </row>
